--- a/TY_Wetlands1.xlsx
+++ b/TY_Wetlands1.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="38">
   <si>
     <t>編號</t>
   </si>
@@ -106,6 +107,45 @@
   <si>
     <t>水質</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選點原因_Color</t>
   </si>
 </sst>
 </file>
@@ -435,20 +475,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,16 +503,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -485,16 +529,19 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>25.100453999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>121.204819</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -508,16 +555,19 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
         <v>25.100565</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>121.204965</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -531,16 +581,19 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <v>25.101475000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>121.20593599999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -553,14 +606,17 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
         <v>25.049858</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>121.080939</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -573,14 +629,17 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
         <v>25.050222999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>121.083071</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -594,16 +653,19 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>25.025767999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>121.041124</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -616,14 +678,17 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
         <v>25.026844000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>121.04287600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -636,14 +701,17 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
         <v>25.027052999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>121.043245</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -656,14 +724,17 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
         <v>25.027384000000001</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>121.04348899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -676,14 +747,17 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
         <v>25.027569</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>121.043848</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -696,14 +770,17 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
         <v>25.027899999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>121.04414800000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -716,14 +793,17 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
         <v>25.028151000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>121.045615</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -736,14 +816,17 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
         <v>25.021042999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>121.038887</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>29</v>
       </c>
@@ -756,14 +839,17 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
         <v>25.018863</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>121.03671199999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -777,16 +863,19 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
         <v>25.018384999999999</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>121.035933</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
@@ -800,16 +889,19 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
         <v>25.018632</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>121.035449</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32</v>
       </c>
@@ -823,16 +915,19 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
         <v>25.018172</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>121.03497</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>33</v>
       </c>
@@ -846,16 +941,19 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
         <v>25.018024</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>121.03465199999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34</v>
       </c>
@@ -869,16 +967,19 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
         <v>25.025057</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>121.04059100000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>82</v>
       </c>
@@ -891,14 +992,17 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
         <v>24.992553000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>121.158749</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>83</v>
       </c>
@@ -911,14 +1015,17 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="F22">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22">
         <v>24.99042</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>121.158573</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>85</v>
       </c>
@@ -931,14 +1038,17 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="F23">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
         <v>24.992417</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>121.15974799999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>86</v>
       </c>
@@ -951,14 +1061,17 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="F24">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24">
         <v>24.999238999999999</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>121.16927200000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>88</v>
       </c>
@@ -971,14 +1084,17 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="F25">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
         <v>25.001055000000001</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>121.171662</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>108</v>
       </c>
@@ -992,16 +1108,19 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
         <v>24.983622</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>121.112495</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>109</v>
       </c>
@@ -1015,16 +1134,19 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
         <v>24.982119000000001</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>121.117773</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>111</v>
       </c>
@@ -1038,16 +1160,19 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
         <v>24.979111</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>121.123397</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>112</v>
       </c>
@@ -1061,16 +1186,19 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
         <v>24.978925</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>121.123007</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>121</v>
       </c>
@@ -1083,14 +1211,17 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30">
         <v>24.972342000000001</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>121.14495599999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>122</v>
       </c>
@@ -1103,14 +1234,17 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="F31">
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31">
         <v>24.972263999999999</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>121.144893</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -1123,14 +1257,17 @@
       <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="F32">
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32">
         <v>24.977284000000001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>121.158449</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>127</v>
       </c>
@@ -1143,14 +1280,17 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="F33">
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33">
         <v>24.977269</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>121.15858900000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>129</v>
       </c>
@@ -1164,16 +1304,19 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
         <v>24.972756</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>121.167513</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>130</v>
       </c>
@@ -1187,16 +1330,19 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
         <v>24.972920999999999</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>121.167348</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>131</v>
       </c>
@@ -1210,16 +1356,19 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
         <v>24.973994000000001</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>121.16823599999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>132</v>
       </c>
@@ -1233,16 +1382,19 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
         <v>24.973704000000001</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>121.16843799999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>146</v>
       </c>
@@ -1255,14 +1407,17 @@
       <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="F38">
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38">
         <v>24.968012999999999</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>121.291616</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>147</v>
       </c>
@@ -1275,14 +1430,17 @@
       <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="F39">
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39">
         <v>24.967668</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>121.291816</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>148</v>
       </c>
@@ -1295,14 +1453,17 @@
       <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40">
         <v>24.965866999999999</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>121.290627</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -1315,14 +1476,17 @@
       <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41">
         <v>24.954984</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>121.061695</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>162</v>
       </c>
@@ -1335,14 +1499,17 @@
       <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="F42">
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42">
         <v>24.956904000000002</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>121.065416</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>180</v>
       </c>
@@ -1355,14 +1522,17 @@
       <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="F43">
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43">
         <v>24.950579000000001</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>121.135738</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>181</v>
       </c>
@@ -1375,14 +1545,17 @@
       <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="F44">
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44">
         <v>24.950523</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>121.136067</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>183</v>
       </c>
@@ -1395,14 +1568,17 @@
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45">
         <v>24.962253</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>121.138634</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>184</v>
       </c>
@@ -1415,14 +1591,17 @@
       <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="F46">
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46">
         <v>24.960889999999999</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>121.138599</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>185</v>
       </c>
@@ -1435,14 +1614,17 @@
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="F47">
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47">
         <v>24.958873000000001</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>121.139995</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>188</v>
       </c>
@@ -1455,14 +1637,17 @@
       <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="F48">
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48">
         <v>24.954568999999999</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>121.147198</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>189</v>
       </c>
@@ -1475,14 +1660,17 @@
       <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49">
         <v>24.954072</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>121.14755599999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>190</v>
       </c>
@@ -1495,14 +1683,17 @@
       <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="F50">
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50">
         <v>24.945484</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>121.146911</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>191</v>
       </c>
@@ -1515,14 +1706,17 @@
       <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51">
         <v>24.945340000000002</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>121.14689799999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>193</v>
       </c>
@@ -1536,16 +1730,19 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
         <v>24.943843999999999</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>121.155067</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>195</v>
       </c>
@@ -1559,16 +1756,19 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
         <v>24.94829</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>121.174035</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>196</v>
       </c>
@@ -1582,16 +1782,19 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54">
         <v>24.947759000000001</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>121.17479299999999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>197</v>
       </c>
@@ -1605,16 +1808,19 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
         <v>24.947624000000001</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>121.17501799999999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>198</v>
       </c>
@@ -1628,16 +1834,19 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
         <v>24.948086</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>121.17407</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>199</v>
       </c>
@@ -1651,16 +1860,19 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
         <v>24.952797</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>121.178968</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>200</v>
       </c>
@@ -1674,16 +1886,19 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
         <v>24.952950999999999</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>121.17941999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>202</v>
       </c>
@@ -1697,16 +1912,19 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
         <v>24.952226</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>121.187876</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>203</v>
       </c>
@@ -1720,16 +1938,19 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
         <v>24.951723000000001</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>121.187912</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>204</v>
       </c>
@@ -1743,16 +1964,19 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61">
         <v>24.954827000000002</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>121.290205</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>205</v>
       </c>
@@ -1766,16 +1990,19 @@
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62">
         <v>24.954481000000001</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>121.291048</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>206</v>
       </c>
@@ -1789,16 +2016,19 @@
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
         <v>24.944220000000001</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>121.299344</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>208</v>
       </c>
@@ -1812,16 +2042,19 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
         <v>24.947012999999998</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>121.30674999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>209</v>
       </c>
@@ -1835,16 +2068,19 @@
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65">
         <v>24.946664999999999</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>121.30614300000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>211</v>
       </c>
@@ -1858,16 +2094,19 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66">
         <v>24.949103999999998</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>121.31618</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>212</v>
       </c>
@@ -1881,16 +2120,19 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67">
         <v>24.948433999999999</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>121.315928</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>217</v>
       </c>
@@ -1903,14 +2145,17 @@
       <c r="D68" t="s">
         <v>8</v>
       </c>
-      <c r="F68">
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68">
         <v>24.927358000000002</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>121.06449600000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>218</v>
       </c>
@@ -1923,14 +2168,17 @@
       <c r="D69" t="s">
         <v>8</v>
       </c>
-      <c r="F69">
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69">
         <v>24.927064999999999</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>121.064376</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>219</v>
       </c>
@@ -1943,14 +2191,17 @@
       <c r="D70" t="s">
         <v>8</v>
       </c>
-      <c r="F70">
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70">
         <v>24.925719000000001</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>121.06342600000001</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>221</v>
       </c>
@@ -1963,14 +2214,17 @@
       <c r="D71" t="s">
         <v>8</v>
       </c>
-      <c r="F71">
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71">
         <v>24.925305000000002</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>121.07630399999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>222</v>
       </c>
@@ -1983,14 +2237,17 @@
       <c r="D72" t="s">
         <v>8</v>
       </c>
-      <c r="F72">
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72">
         <v>24.925636000000001</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>121.07655</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>224</v>
       </c>
@@ -2003,14 +2260,17 @@
       <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="F73">
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73">
         <v>24.924429</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>121.08478700000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>225</v>
       </c>
@@ -2023,14 +2283,17 @@
       <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="F74">
+      <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74">
         <v>24.924239</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>121.085409</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>226</v>
       </c>
@@ -2043,14 +2306,17 @@
       <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="F75">
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75">
         <v>24.935521000000001</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>121.095099</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>227</v>
       </c>
@@ -2063,14 +2329,17 @@
       <c r="D76" t="s">
         <v>8</v>
       </c>
-      <c r="F76">
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76">
         <v>24.932718999999999</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>121.094668</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>228</v>
       </c>
@@ -2083,14 +2352,17 @@
       <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="F77">
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77">
         <v>24.935700000000001</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>121.095665</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>234</v>
       </c>
@@ -2103,14 +2375,17 @@
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="F78">
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78">
         <v>24.93</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>121.12054999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>235</v>
       </c>
@@ -2123,14 +2398,17 @@
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="F79">
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79">
         <v>24.929396000000001</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>121.12115900000001</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>240</v>
       </c>
@@ -2143,14 +2421,17 @@
       <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="F80">
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80">
         <v>24.943113</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>121.14482</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>244</v>
       </c>
@@ -2164,16 +2445,19 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81">
         <v>24.942869000000002</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>121.154661</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>245</v>
       </c>
@@ -2187,16 +2471,19 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82">
         <v>24.943677000000001</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>121.156548</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>246</v>
       </c>
@@ -2210,16 +2497,19 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83">
         <v>24.941725000000002</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>121.15494099999999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>247</v>
       </c>
@@ -2232,14 +2522,17 @@
       <c r="D84" t="s">
         <v>8</v>
       </c>
-      <c r="F84">
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84">
         <v>24.938175000000001</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>121.15256599999999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>248</v>
       </c>
@@ -2252,14 +2545,17 @@
       <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="F85">
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85">
         <v>24.936250999999999</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>121.153409</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>255</v>
       </c>
@@ -2272,14 +2568,17 @@
       <c r="D86" t="s">
         <v>8</v>
       </c>
-      <c r="F86">
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86">
         <v>24.943118999999999</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>121.17324000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>256</v>
       </c>
@@ -2292,14 +2591,17 @@
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="F87">
+      <c r="E87" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87">
         <v>24.940552</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>121.175952</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>257</v>
       </c>
@@ -2312,14 +2614,17 @@
       <c r="D88" t="s">
         <v>8</v>
       </c>
-      <c r="F88">
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88">
         <v>24.942087999999998</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>121.17659</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>258</v>
       </c>
@@ -2333,16 +2638,19 @@
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89">
+        <v>31</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89">
         <v>24.933968</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>121.176839</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>210</v>
       </c>
@@ -2356,16 +2664,19 @@
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90">
+        <v>29</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90">
         <v>24.948361999999999</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>121.31120300000001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>263</v>
       </c>
@@ -2379,16 +2690,19 @@
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91">
+        <v>29</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91">
         <v>24.943517</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>121.313016</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>265</v>
       </c>
@@ -2402,16 +2716,19 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92">
         <v>24.917161</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>121.066354</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>266</v>
       </c>
@@ -2425,16 +2742,19 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93">
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93">
         <v>24.916903999999999</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>121.06637000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>269</v>
       </c>
@@ -2448,16 +2768,19 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94">
+        <v>35</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94">
         <v>24.917466000000001</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>121.07084399999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>270</v>
       </c>
@@ -2470,14 +2793,17 @@
       <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="F95">
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95">
         <v>24.917147</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>121.07085499999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>275</v>
       </c>
@@ -2491,16 +2817,19 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96">
+        <v>35</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96">
         <v>24.905353999999999</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>121.084605</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>277</v>
       </c>
@@ -2514,16 +2843,19 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97">
+        <v>35</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97">
         <v>24.905183999999998</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>121.08547</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>278</v>
       </c>
@@ -2537,16 +2869,19 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98">
+        <v>35</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98">
         <v>24.921520999999998</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>121.094358</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>279</v>
       </c>
@@ -2560,16 +2895,19 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99">
+        <v>35</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99">
         <v>24.921198</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>121.094179</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>280</v>
       </c>
@@ -2583,16 +2921,19 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100">
+        <v>35</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100">
         <v>24.921811000000002</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>121.095168</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>281</v>
       </c>
@@ -2605,14 +2946,17 @@
       <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="F101">
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101">
         <v>24.916795</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>121.096537</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>282</v>
       </c>
@@ -2625,14 +2969,17 @@
       <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="F102">
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102">
         <v>24.915167</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>121.096272</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>283</v>
       </c>
@@ -2646,16 +2993,19 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103">
+        <v>35</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103">
         <v>24.916817999999999</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>121.102587</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>284</v>
       </c>
@@ -2669,16 +3019,19 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104">
+        <v>35</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104">
         <v>24.9194</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>121.103864</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>285</v>
       </c>
@@ -2692,16 +3045,19 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105">
+        <v>35</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105">
         <v>24.918171999999998</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>121.10380600000001</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>286</v>
       </c>
@@ -2715,16 +3071,19 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106">
         <v>24.919377999999998</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>121.104133</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>287</v>
       </c>
@@ -2738,16 +3097,19 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107">
+        <v>35</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107">
         <v>24.917639000000001</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>121.105711</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>288</v>
       </c>
@@ -2761,16 +3123,19 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108">
+        <v>35</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108">
         <v>24.917176000000001</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>121.106032</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>299</v>
       </c>
@@ -2784,16 +3149,19 @@
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109">
         <v>24.905370000000001</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>121.266564</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>300</v>
       </c>
@@ -2807,16 +3175,19 @@
         <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110">
+        <v>27</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110">
         <v>24.915607000000001</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>121.267948</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>301</v>
       </c>
@@ -2830,16 +3201,19 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111">
+        <v>27</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111">
         <v>24.916243999999999</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>121.268683</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>302</v>
       </c>
@@ -2853,16 +3227,19 @@
         <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112">
+        <v>27</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112">
         <v>24.914635000000001</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>121.274714</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>304</v>
       </c>
@@ -2876,16 +3253,19 @@
         <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113">
+        <v>27</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113">
         <v>24.911276999999998</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>121.276146</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>305</v>
       </c>
@@ -2899,16 +3279,19 @@
         <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114">
+        <v>27</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114">
         <v>24.911732000000001</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>121.279082</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>306</v>
       </c>
@@ -2922,16 +3305,19 @@
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115">
+        <v>27</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115">
         <v>24.911846000000001</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>121.27936</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>312</v>
       </c>
@@ -2945,16 +3331,19 @@
         <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116">
+        <v>27</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116">
         <v>24.891914</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>121.238647</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>313</v>
       </c>
@@ -2968,16 +3357,19 @@
         <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117">
+        <v>27</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117">
         <v>24.888531</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>121.255081</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>314</v>
       </c>
@@ -2991,16 +3383,19 @@
         <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118">
+        <v>27</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118">
         <v>24.888155999999999</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>121.255107</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>316</v>
       </c>
@@ -3014,16 +3409,19 @@
         <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119">
+        <v>27</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119">
         <v>24.885967999999998</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>121.259218</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>317</v>
       </c>
@@ -3037,16 +3435,19 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120">
+        <v>27</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120">
         <v>24.88419</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>121.25868199999999</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>318</v>
       </c>
@@ -3060,16 +3461,19 @@
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121">
         <v>24.889018</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>121.26172800000001</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>319</v>
       </c>
@@ -3083,16 +3487,19 @@
         <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122">
+        <v>27</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122">
         <v>24.884001000000001</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>121.261808</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>320</v>
       </c>
@@ -3106,16 +3513,19 @@
         <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123">
         <v>24.887387</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>121.26674199999999</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>321</v>
       </c>
@@ -3129,16 +3539,19 @@
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124">
+        <v>27</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124">
         <v>24.892889</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>121.28452799999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>323</v>
       </c>
@@ -3152,16 +3565,19 @@
         <v>23</v>
       </c>
       <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" t="s">
         <v>25</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>24.863769000000001</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>121.22747099999999</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>324</v>
       </c>
@@ -3175,16 +3591,19 @@
         <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126">
+        <v>27</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126">
         <v>24.863382000000001</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>121.268366</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>325</v>
       </c>
@@ -3198,16 +3617,19 @@
         <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127">
         <v>24.864153999999999</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>121.269087</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>326</v>
       </c>
@@ -3221,16 +3643,19 @@
         <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128">
+        <v>27</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128">
         <v>24.864090999999998</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>121.26928100000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>327</v>
       </c>
@@ -3244,16 +3669,19 @@
         <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129">
+        <v>27</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129">
         <v>24.861718</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>121.266649</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>328</v>
       </c>
@@ -3267,16 +3695,19 @@
         <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130">
+        <v>27</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130">
         <v>24.860154999999999</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>121.26631</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>329</v>
       </c>
@@ -3290,16 +3721,19 @@
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131">
+        <v>27</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131">
         <v>24.844463999999999</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>121.301638</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>330</v>
       </c>
@@ -3313,16 +3747,19 @@
         <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132">
+        <v>27</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132">
         <v>24.844066000000002</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>121.316529</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>331</v>
       </c>
@@ -3336,16 +3773,19 @@
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133">
+        <v>27</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133">
         <v>24.835477000000001</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>121.254141</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>332</v>
       </c>
@@ -3359,16 +3799,19 @@
         <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134">
+        <v>27</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134">
         <v>24.835239000000001</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>121.254347</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>333</v>
       </c>
@@ -3382,16 +3825,19 @@
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135">
+        <v>27</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135">
         <v>24.837143000000001</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>121.25699400000001</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>334</v>
       </c>
@@ -3405,16 +3851,19 @@
         <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136">
+        <v>27</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136">
         <v>24.833490000000001</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>121.25840700000001</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>335</v>
       </c>
@@ -3428,16 +3877,19 @@
         <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137">
+        <v>27</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137">
         <v>24.833658</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>121.258517</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>336</v>
       </c>
@@ -3451,16 +3903,19 @@
         <v>23</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138">
+        <v>27</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138">
         <v>24.836254</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>121.28062199999999</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>337</v>
       </c>
@@ -3474,16 +3929,19 @@
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139">
+        <v>27</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139">
         <v>24.836406</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>121.28080799999999</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>338</v>
       </c>
@@ -3497,16 +3955,19 @@
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140">
+        <v>27</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140">
         <v>24.841322999999999</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>121.29109099999999</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>339</v>
       </c>
@@ -3520,12 +3981,15 @@
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141">
+        <v>27</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141">
         <v>24.840391</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>121.296961</v>
       </c>
     </row>
@@ -3533,4 +3997,77 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TY_Wetlands1.xlsx
+++ b/TY_Wetlands1.xlsx
@@ -110,20 +110,11 @@
   </si>
   <si>
     <t>red</t>
-  </si>
-  <si>
-    <t>red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>green</t>
-  </si>
-  <si>
-    <t>green</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
   </si>
   <si>
     <t>blue</t>
@@ -139,13 +130,23 @@
   </si>
   <si>
     <t>yellow</t>
-  </si>
-  <si>
-    <t>yellow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>選點原因_Color</t>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -477,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -503,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -529,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -555,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -581,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -607,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>25.049858</v>
@@ -630,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>25.050222999999999</v>
@@ -653,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -679,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>25.026844000000001</v>
@@ -702,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>25.027052999999999</v>
@@ -725,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>25.027384000000001</v>
@@ -748,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>25.027569</v>
@@ -771,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>25.027899999999999</v>
@@ -794,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>25.028151000000001</v>
@@ -817,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>25.021042999999999</v>
@@ -840,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>25.018863</v>
@@ -863,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -889,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -915,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -941,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -967,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -993,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>24.992553000000001</v>
@@ -1016,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>24.99042</v>
@@ -1039,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>24.992417</v>
@@ -1062,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>24.999238999999999</v>
@@ -1085,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>25.001055000000001</v>
@@ -1108,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1134,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1160,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1186,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1212,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>24.972342000000001</v>
@@ -1235,7 +1236,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>24.972263999999999</v>
@@ -1258,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>24.977284000000001</v>
@@ -1281,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>24.977269</v>
@@ -1304,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1330,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1356,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1382,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1408,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>24.968012999999999</v>
@@ -1431,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>24.967668</v>
@@ -1454,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>24.965866999999999</v>
@@ -1477,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>24.954984</v>
@@ -1500,7 +1501,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>24.956904000000002</v>
@@ -1523,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>24.950579000000001</v>
@@ -1546,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>24.950523</v>
@@ -1569,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>24.962253</v>
@@ -1592,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>24.960889999999999</v>
@@ -1615,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>24.958873000000001</v>
@@ -1638,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>24.954568999999999</v>
@@ -1661,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>24.954072</v>
@@ -1684,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>24.945484</v>
@@ -1707,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>24.945340000000002</v>
@@ -1730,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1756,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1782,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1808,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1834,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1860,7 +1861,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1886,7 +1887,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1912,7 +1913,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1938,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1964,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1990,7 +1991,7 @@
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2016,7 +2017,7 @@
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2042,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2068,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2094,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2120,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2146,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>24.927358000000002</v>
@@ -2169,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>24.927064999999999</v>
@@ -2192,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>24.925719000000001</v>
@@ -2215,7 +2216,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>24.925305000000002</v>
@@ -2238,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>24.925636000000001</v>
@@ -2261,7 +2262,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>24.924429</v>
@@ -2284,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>24.924239</v>
@@ -2307,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>24.935521000000001</v>
@@ -2330,7 +2331,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>24.932718999999999</v>
@@ -2353,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>24.935700000000001</v>
@@ -2376,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>24.93</v>
@@ -2399,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>24.929396000000001</v>
@@ -2422,7 +2423,7 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>24.943113</v>
@@ -2445,7 +2446,7 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2471,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2497,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2523,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>24.938175000000001</v>
@@ -2546,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>24.936250999999999</v>
@@ -2569,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>24.943118999999999</v>
@@ -2592,7 +2593,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>24.940552</v>
@@ -2615,7 +2616,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>24.942087999999998</v>
@@ -2638,7 +2639,7 @@
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -2664,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2690,7 +2691,7 @@
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -2716,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -2742,7 +2743,7 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -2768,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2794,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>24.917147</v>
@@ -2817,7 +2818,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
         <v>9</v>
@@ -2843,7 +2844,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -2869,7 +2870,7 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -2895,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2921,7 +2922,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
@@ -2947,7 +2948,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>24.916795</v>
@@ -2970,7 +2971,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>24.915167</v>
@@ -2993,7 +2994,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -3019,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -3045,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -3071,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -3097,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -3123,7 +3124,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -3149,7 +3150,7 @@
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -3175,7 +3176,7 @@
         <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -3201,7 +3202,7 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -3227,7 +3228,7 @@
         <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -3253,7 +3254,7 @@
         <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -3279,7 +3280,7 @@
         <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
@@ -3305,7 +3306,7 @@
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
@@ -3331,7 +3332,7 @@
         <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -3357,7 +3358,7 @@
         <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
@@ -3383,7 +3384,7 @@
         <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
@@ -3409,7 +3410,7 @@
         <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
         <v>9</v>
@@ -3435,7 +3436,7 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -3461,7 +3462,7 @@
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
@@ -3487,7 +3488,7 @@
         <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -3513,7 +3514,7 @@
         <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -3539,7 +3540,7 @@
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
@@ -3565,7 +3566,7 @@
         <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
         <v>25</v>
@@ -3591,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -3617,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
@@ -3643,7 +3644,7 @@
         <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -3669,7 +3670,7 @@
         <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -3695,7 +3696,7 @@
         <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
         <v>9</v>
@@ -3721,7 +3722,7 @@
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -3747,7 +3748,7 @@
         <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -3773,7 +3774,7 @@
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -3799,7 +3800,7 @@
         <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
@@ -3825,7 +3826,7 @@
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
         <v>9</v>
@@ -3851,7 +3852,7 @@
         <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
         <v>9</v>
@@ -3877,7 +3878,7 @@
         <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
         <v>9</v>
@@ -3903,7 +3904,7 @@
         <v>23</v>
       </c>
       <c r="E138" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
         <v>9</v>
@@ -3929,7 +3930,7 @@
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -3955,7 +3956,7 @@
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
@@ -3981,7 +3982,7 @@
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
         <v>9</v>
@@ -4004,7 +4005,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4022,7 +4023,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4030,7 +4031,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4038,7 +4039,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4046,7 +4047,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4054,7 +4055,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4062,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TY_Wetlands1.xlsx
+++ b/TY_Wetlands1.xlsx
@@ -133,20 +133,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>#7FFF00</t>
   </si>
   <si>
-    <t>y</t>
+    <t>#FFFF00</t>
   </si>
   <si>
-    <t>g</t>
+    <t>Colo#FF00FF</t>
   </si>
   <si>
-    <t>r</t>
+    <t>#FF00FF</t>
   </si>
   <si>
-    <t>b</t>
+    <t>#0000FF</t>
   </si>
 </sst>
 </file>
@@ -478,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -504,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -1965,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1991,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2017,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2043,7 +2042,7 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2069,7 +2068,7 @@
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2095,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2121,7 +2120,7 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2665,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2691,7 +2690,7 @@
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>

--- a/TY_Wetlands1.xlsx
+++ b/TY_Wetlands1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="39">
   <si>
     <t>編號</t>
   </si>
@@ -133,19 +133,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#7FFF00</t>
-  </si>
-  <si>
     <t>#FFFF00</t>
-  </si>
-  <si>
-    <t>Colo#FF00FF</t>
   </si>
   <si>
     <t>#FF00FF</t>
   </si>
   <si>
     <t>#0000FF</t>
+  </si>
+  <si>
+    <t>選點原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選點原因Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00FF00</t>
   </si>
 </sst>
 </file>
@@ -477,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -500,10 +505,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -529,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -555,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -581,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -607,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>25.049858</v>
@@ -630,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>25.050222999999999</v>
@@ -653,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -679,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>25.026844000000001</v>
@@ -702,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>25.027052999999999</v>
@@ -725,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>25.027384000000001</v>
@@ -748,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>25.027569</v>
@@ -771,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>25.027899999999999</v>
@@ -794,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>25.028151000000001</v>
@@ -817,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>25.021042999999999</v>
@@ -840,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>25.018863</v>
@@ -863,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -889,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -915,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -941,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -967,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -993,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>24.992553000000001</v>
@@ -1016,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>24.99042</v>
@@ -1039,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>24.992417</v>
@@ -1062,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>24.999238999999999</v>
@@ -1085,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>25.001055000000001</v>
@@ -1108,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1134,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1160,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1186,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1212,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>24.972342000000001</v>
@@ -1235,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>24.972263999999999</v>
@@ -1258,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>24.977284000000001</v>
@@ -1281,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>24.977269</v>
@@ -1304,7 +1309,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1330,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1356,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1382,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1408,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>24.968012999999999</v>
@@ -1431,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>24.967668</v>
@@ -1454,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>24.965866999999999</v>
@@ -1477,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>24.954984</v>
@@ -1500,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>24.956904000000002</v>
@@ -1523,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>24.950579000000001</v>
@@ -1546,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>24.950523</v>
@@ -1569,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>24.962253</v>
@@ -1592,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>24.960889999999999</v>
@@ -1615,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>24.958873000000001</v>
@@ -1638,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>24.954568999999999</v>
@@ -1661,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>24.954072</v>
@@ -1684,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>24.945484</v>
@@ -1707,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>24.945340000000002</v>
@@ -1730,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1756,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1782,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1808,7 +1813,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1834,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1860,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1886,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1912,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1938,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1964,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1990,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2016,7 +2021,7 @@
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2042,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2068,7 +2073,7 @@
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2094,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2120,7 +2125,7 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2146,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>24.927358000000002</v>
@@ -2169,7 +2174,7 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>24.927064999999999</v>
@@ -2192,7 +2197,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>24.925719000000001</v>
@@ -2215,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>24.925305000000002</v>
@@ -2238,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>24.925636000000001</v>
@@ -2261,7 +2266,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>24.924429</v>
@@ -2284,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>24.924239</v>
@@ -2307,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>24.935521000000001</v>
@@ -2330,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>24.932718999999999</v>
@@ -2353,7 +2358,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>24.935700000000001</v>
@@ -2376,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>24.93</v>
@@ -2399,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>24.929396000000001</v>
@@ -2422,7 +2427,7 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>24.943113</v>
@@ -2445,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2471,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2497,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2523,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>24.938175000000001</v>
@@ -2546,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>24.936250999999999</v>
@@ -2569,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>24.943118999999999</v>
@@ -2592,7 +2597,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>24.940552</v>
@@ -2615,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>24.942087999999998</v>
@@ -2638,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -2664,7 +2669,7 @@
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2690,7 +2695,7 @@
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -2716,7 +2721,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -2742,7 +2747,7 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -2768,7 +2773,7 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2794,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>24.917147</v>
@@ -2817,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
         <v>9</v>
@@ -2843,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -2869,7 +2874,7 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -2895,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2921,7 +2926,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
@@ -2947,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>24.916795</v>
@@ -2970,7 +2975,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>24.915167</v>
@@ -2993,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -3019,7 +3024,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -3045,7 +3050,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -3071,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -3097,7 +3102,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -3123,7 +3128,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -3149,7 +3154,7 @@
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -3175,7 +3180,7 @@
         <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -3201,7 +3206,7 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -3227,7 +3232,7 @@
         <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -3253,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -3279,7 +3284,7 @@
         <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
@@ -3305,7 +3310,7 @@
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
@@ -3331,7 +3336,7 @@
         <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -3357,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
@@ -3383,7 +3388,7 @@
         <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
@@ -3409,7 +3414,7 @@
         <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
         <v>9</v>
@@ -3435,7 +3440,7 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -3461,7 +3466,7 @@
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
@@ -3487,7 +3492,7 @@
         <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -3513,7 +3518,7 @@
         <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -3539,7 +3544,7 @@
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
@@ -3565,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
         <v>25</v>
@@ -3591,7 +3596,7 @@
         <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -3617,7 +3622,7 @@
         <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
@@ -3643,7 +3648,7 @@
         <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -3669,7 +3674,7 @@
         <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -3695,7 +3700,7 @@
         <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
         <v>9</v>
@@ -3721,7 +3726,7 @@
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -3747,7 +3752,7 @@
         <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -3773,7 +3778,7 @@
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -3799,7 +3804,7 @@
         <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
@@ -3825,7 +3830,7 @@
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
         <v>9</v>
@@ -3851,7 +3856,7 @@
         <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
         <v>9</v>
@@ -3877,7 +3882,7 @@
         <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
         <v>9</v>
@@ -3903,7 +3908,7 @@
         <v>23</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
         <v>9</v>
@@ -3929,7 +3934,7 @@
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -3955,7 +3960,7 @@
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
@@ -3981,7 +3986,7 @@
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
         <v>9</v>

--- a/TY_Wetlands1.xlsx
+++ b/TY_Wetlands1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="42">
   <si>
     <t>編號</t>
   </si>
@@ -136,9 +136,6 @@
     <t>#FFFF00</t>
   </si>
   <si>
-    <t>#FF00FF</t>
-  </si>
-  <si>
     <t>#0000FF</t>
   </si>
   <si>
@@ -151,6 +148,20 @@
   </si>
   <si>
     <t>#00FF00</t>
+  </si>
+  <si>
+    <t>deep blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFA500</t>
   </si>
 </sst>
 </file>
@@ -482,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -505,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -534,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -560,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -586,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -612,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>25.049858</v>
@@ -635,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>25.050222999999999</v>
@@ -658,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -684,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>25.026844000000001</v>
@@ -707,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>25.027052999999999</v>
@@ -730,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>25.027384000000001</v>
@@ -753,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>25.027569</v>
@@ -776,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>25.027899999999999</v>
@@ -799,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>25.028151000000001</v>
@@ -822,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>25.021042999999999</v>
@@ -845,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>25.018863</v>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -894,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -920,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -946,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -972,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -998,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>24.992553000000001</v>
@@ -1021,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>24.99042</v>
@@ -1044,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>24.992417</v>
@@ -1067,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>24.999238999999999</v>
@@ -1090,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>25.001055000000001</v>
@@ -1113,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1139,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1165,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1191,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1217,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>24.972342000000001</v>
@@ -1240,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>24.972263999999999</v>
@@ -1263,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>24.977284000000001</v>
@@ -1286,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>24.977269</v>
@@ -1309,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1335,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1361,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1387,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1413,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G38">
         <v>24.968012999999999</v>
@@ -1436,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>24.967668</v>
@@ -1459,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>24.965866999999999</v>
@@ -1482,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>24.954984</v>
@@ -1505,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>24.956904000000002</v>
@@ -1528,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>24.950579000000001</v>
@@ -1551,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G44">
         <v>24.950523</v>
@@ -1574,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>24.962253</v>
@@ -1597,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G46">
         <v>24.960889999999999</v>
@@ -1620,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>24.958873000000001</v>
@@ -1643,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>24.954568999999999</v>
@@ -1666,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>24.954072</v>
@@ -1689,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>24.945484</v>
@@ -1712,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>24.945340000000002</v>
@@ -1735,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1761,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1787,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1813,7 +1824,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1839,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1865,7 +1876,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1891,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1917,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1943,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1969,7 +1980,7 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1995,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2021,7 +2032,7 @@
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2047,7 +2058,7 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2073,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2099,7 +2110,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2125,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2151,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>24.927358000000002</v>
@@ -2174,7 +2185,7 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>24.927064999999999</v>
@@ -2197,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G70">
         <v>24.925719000000001</v>
@@ -2220,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>24.925305000000002</v>
@@ -2243,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G72">
         <v>24.925636000000001</v>
@@ -2266,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G73">
         <v>24.924429</v>
@@ -2289,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>24.924239</v>
@@ -2312,7 +2323,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>24.935521000000001</v>
@@ -2335,7 +2346,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>24.932718999999999</v>
@@ -2358,7 +2369,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>24.935700000000001</v>
@@ -2381,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>24.93</v>
@@ -2404,7 +2415,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>24.929396000000001</v>
@@ -2427,7 +2438,7 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G80">
         <v>24.943113</v>
@@ -2450,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2476,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2502,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2528,7 +2539,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>24.938175000000001</v>
@@ -2551,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>24.936250999999999</v>
@@ -2574,7 +2585,7 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G86">
         <v>24.943118999999999</v>
@@ -2597,7 +2608,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>24.940552</v>
@@ -2620,7 +2631,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G88">
         <v>24.942087999999998</v>
@@ -2643,7 +2654,7 @@
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -2669,7 +2680,7 @@
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2695,7 +2706,7 @@
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -2721,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -2747,7 +2758,7 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -2773,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2799,7 +2810,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>24.917147</v>
@@ -2822,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
         <v>9</v>
@@ -2848,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -2874,7 +2885,7 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -2900,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2926,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
@@ -2952,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>24.916795</v>
@@ -2975,7 +2986,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G102">
         <v>24.915167</v>
@@ -2998,7 +3009,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -3024,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -3050,7 +3061,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -3076,7 +3087,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -3102,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -3128,7 +3139,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -3154,7 +3165,7 @@
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -3180,7 +3191,7 @@
         <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -3206,7 +3217,7 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -3232,7 +3243,7 @@
         <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -3258,7 +3269,7 @@
         <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -3284,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
@@ -3310,7 +3321,7 @@
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
@@ -3336,7 +3347,7 @@
         <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -3362,7 +3373,7 @@
         <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
@@ -3388,7 +3399,7 @@
         <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
@@ -3414,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
         <v>9</v>
@@ -3440,7 +3451,7 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -3466,7 +3477,7 @@
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
@@ -3492,7 +3503,7 @@
         <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -3518,7 +3529,7 @@
         <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -3544,7 +3555,7 @@
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
@@ -3570,7 +3581,7 @@
         <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
         <v>25</v>
@@ -3596,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -3622,7 +3633,7 @@
         <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
@@ -3648,7 +3659,7 @@
         <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -3674,7 +3685,7 @@
         <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -3700,7 +3711,7 @@
         <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
         <v>9</v>
@@ -3726,7 +3737,7 @@
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -3752,7 +3763,7 @@
         <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -3778,7 +3789,7 @@
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -3804,7 +3815,7 @@
         <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
@@ -3830,7 +3841,7 @@
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
         <v>9</v>
@@ -3856,7 +3867,7 @@
         <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
         <v>9</v>
@@ -3882,7 +3893,7 @@
         <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
         <v>9</v>
@@ -3908,7 +3919,7 @@
         <v>23</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
         <v>9</v>
@@ -3934,7 +3945,7 @@
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -3960,7 +3971,7 @@
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
@@ -3986,7 +3997,7 @@
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
         <v>9</v>
@@ -4006,10 +4017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4017,36 +4028,48 @@
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4054,7 +4077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4062,12 +4085,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
